--- a/docs/traderecords/f6_20211214.xlsx
+++ b/docs/traderecords/f6_20211214.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="528">
   <si>
     <t>证券代码</t>
   </si>
@@ -385,9 +385,6 @@
     <t>300102</t>
   </si>
   <si>
-    <t>515330</t>
-  </si>
-  <si>
     <t>证券名称</t>
   </si>
   <si>
@@ -757,9 +754,6 @@
     <t>乾照光电</t>
   </si>
   <si>
-    <t>天弘300</t>
-  </si>
-  <si>
     <t>方向</t>
   </si>
   <si>
@@ -775,9 +769,6 @@
     <t>成交</t>
   </si>
   <si>
-    <t>废单</t>
-  </si>
-  <si>
     <t>成交数量</t>
   </si>
   <si>
@@ -1216,9 +1207,6 @@
     <t>9.31</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>成交时间</t>
   </si>
   <si>
@@ -1610,24 +1598,25 @@
   </si>
   <si>
     <t>2021-12-14 09:30:00.150</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:15:07.000</t>
-  </si>
-  <si>
-    <t>2021-12-14 09:15:01.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1655,7 +1644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1663,7 +1652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1947,33 +1936,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:XFD179"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
         <v>251</v>
       </c>
-      <c r="E1" t="s">
-        <v>254</v>
-      </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1981,22 +1972,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2004,22 +1995,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2027,22 +2018,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2050,22 +2041,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2073,22 +2064,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2096,22 +2087,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2119,22 +2110,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2142,22 +2133,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2165,22 +2156,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2188,22 +2179,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2211,22 +2202,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2234,22 +2225,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2257,22 +2248,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2280,22 +2271,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2303,22 +2294,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2326,22 +2317,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2349,22 +2340,22 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2372,22 +2363,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2395,22 +2386,22 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2418,22 +2409,22 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2441,22 +2432,22 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2464,22 +2455,22 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2487,22 +2478,22 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2510,22 +2501,22 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2533,22 +2524,22 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G26" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2556,22 +2547,22 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2579,22 +2570,22 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2602,22 +2593,22 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2625,22 +2616,22 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2648,22 +2639,22 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2671,22 +2662,22 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2694,22 +2685,22 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2717,22 +2708,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2740,22 +2731,22 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2763,22 +2754,22 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2786,22 +2777,22 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2809,22 +2800,22 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2832,22 +2823,22 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2855,22 +2846,22 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2878,22 +2869,22 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2901,22 +2892,22 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2924,22 +2915,22 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2947,22 +2938,22 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2970,22 +2961,22 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G45" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2993,22 +2984,22 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G46" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3016,22 +3007,22 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3039,22 +3030,22 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G48" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3062,22 +3053,22 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G49" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3085,22 +3076,22 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G50" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3108,22 +3099,22 @@
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G51" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3131,22 +3122,22 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F52" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3154,22 +3145,22 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3177,22 +3168,22 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G54" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3200,22 +3191,22 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G55" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3223,22 +3214,22 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G56" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3246,22 +3237,22 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G57" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3269,22 +3260,22 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3292,22 +3283,22 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3315,22 +3306,22 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G60" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3338,22 +3329,22 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G61" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3361,22 +3352,22 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G62" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3384,22 +3375,22 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G63" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3407,22 +3398,22 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G64" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3430,22 +3421,22 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G65" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3453,22 +3444,22 @@
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F66" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G66" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3476,22 +3467,22 @@
         <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G67" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3499,22 +3490,22 @@
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G68" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3522,22 +3513,22 @@
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G69" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3545,22 +3536,22 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G70" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3568,22 +3559,22 @@
         <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F71" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G71" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3591,22 +3582,22 @@
         <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F72" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G72" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3614,22 +3605,22 @@
         <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F73" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G73" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3637,22 +3628,22 @@
         <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G74" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3660,22 +3651,22 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G75" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3683,22 +3674,22 @@
         <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G76" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3706,22 +3697,22 @@
         <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G77" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3729,22 +3720,22 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G78" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3752,22 +3743,22 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G79" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3775,22 +3766,22 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G80" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3798,22 +3789,22 @@
         <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G81" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3821,22 +3812,22 @@
         <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G82" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3844,22 +3835,22 @@
         <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G83" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3867,22 +3858,22 @@
         <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G84" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3890,22 +3881,22 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G85" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3913,22 +3904,22 @@
         <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F86" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G86" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3936,22 +3927,22 @@
         <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F87" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G87" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3959,22 +3950,22 @@
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F88" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G88" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3982,22 +3973,22 @@
         <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G89" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4005,22 +3996,22 @@
         <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G90" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4028,22 +4019,22 @@
         <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F91" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G91" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4051,22 +4042,22 @@
         <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G92" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4074,22 +4065,22 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G93" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4097,22 +4088,22 @@
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G94" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4120,22 +4111,22 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G95" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4143,22 +4134,22 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F96" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G96" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4166,22 +4157,22 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G97" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4189,22 +4180,22 @@
         <v>75</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F98" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G98" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4212,22 +4203,22 @@
         <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F99" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G99" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4235,22 +4226,22 @@
         <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E100" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F100" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G100" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4258,22 +4249,22 @@
         <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F101" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G101" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4281,22 +4272,22 @@
         <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E102" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G102" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4304,22 +4295,22 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E103" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G103" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4327,22 +4318,22 @@
         <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E104" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F104" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G104" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4350,22 +4341,22 @@
         <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E105" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F105" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G105" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4373,22 +4364,22 @@
         <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E106" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F106" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G106" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4396,22 +4387,22 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G107" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4419,22 +4410,22 @@
         <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F108" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G108" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4442,22 +4433,22 @@
         <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E109" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F109" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G109" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4465,22 +4456,22 @@
         <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F110" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G110" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4488,22 +4479,22 @@
         <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E111" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F111" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G111" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4511,22 +4502,22 @@
         <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F112" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G112" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4534,22 +4525,22 @@
         <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E113" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F113" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G113" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4557,22 +4548,22 @@
         <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F114" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G114" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4580,22 +4571,22 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E115" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G115" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4603,22 +4594,22 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F116" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G116" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4626,22 +4617,22 @@
         <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F117" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G117" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4649,22 +4640,22 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D118" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E118" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F118" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G118" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4672,22 +4663,22 @@
         <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E119" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F119" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G119" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4695,22 +4686,22 @@
         <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F120" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G120" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4718,22 +4709,22 @@
         <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E121" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F121" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G121" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4741,22 +4732,22 @@
         <v>91</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E122" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F122" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G122" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4764,22 +4755,22 @@
         <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E123" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F123" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G123" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4787,22 +4778,22 @@
         <v>93</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E124" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F124" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G124" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4810,22 +4801,22 @@
         <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D125" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E125" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F125" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G125" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4833,22 +4824,22 @@
         <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E126" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F126" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G126" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4856,22 +4847,22 @@
         <v>94</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F127" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G127" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4879,22 +4870,22 @@
         <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G128" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4902,22 +4893,22 @@
         <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G129" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4925,22 +4916,22 @@
         <v>96</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G130" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4948,22 +4939,22 @@
         <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G131" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4971,22 +4962,22 @@
         <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G132" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4994,22 +4985,22 @@
         <v>98</v>
       </c>
       <c r="B133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G133" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5017,22 +5008,22 @@
         <v>99</v>
       </c>
       <c r="B134" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G134" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5040,22 +5031,22 @@
         <v>100</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D135" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G135" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5063,22 +5054,22 @@
         <v>100</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G136" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5086,22 +5077,22 @@
         <v>100</v>
       </c>
       <c r="B137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D137" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F137" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G137" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5109,22 +5100,22 @@
         <v>100</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D138" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F138" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G138" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5132,22 +5123,22 @@
         <v>101</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D139" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F139" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G139" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5155,22 +5146,22 @@
         <v>102</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D140" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G140" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5178,22 +5169,22 @@
         <v>102</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E141" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F141" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G141" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5201,22 +5192,22 @@
         <v>103</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C142" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D142" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G142" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5224,22 +5215,22 @@
         <v>104</v>
       </c>
       <c r="B143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D143" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E143" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G143" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5247,22 +5238,22 @@
         <v>68</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D144" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E144" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G144" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5270,22 +5261,22 @@
         <v>105</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D145" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E145" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F145" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G145" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5293,22 +5284,22 @@
         <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D146" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E146" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F146" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G146" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5316,22 +5307,22 @@
         <v>107</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C147" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D147" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F147" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G147" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5339,22 +5330,22 @@
         <v>108</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C148" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D148" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E148" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F148" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G148" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5362,22 +5353,22 @@
         <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E149" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F149" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G149" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5385,22 +5376,22 @@
         <v>109</v>
       </c>
       <c r="B150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C150" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E150" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F150" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G150" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5408,22 +5399,22 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C151" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E151" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F151" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G151" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5431,22 +5422,22 @@
         <v>110</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E152" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F152" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G152" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5454,22 +5445,22 @@
         <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D153" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G153" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5477,22 +5468,22 @@
         <v>110</v>
       </c>
       <c r="B154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D154" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E154" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F154" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G154" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5500,22 +5491,22 @@
         <v>110</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F155" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G155" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5523,22 +5514,22 @@
         <v>110</v>
       </c>
       <c r="B156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D156" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E156" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F156" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G156" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5546,22 +5537,22 @@
         <v>111</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D157" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E157" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F157" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G157" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5569,22 +5560,22 @@
         <v>112</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C158" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E158" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F158" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G158" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5592,22 +5583,22 @@
         <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D159" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E159" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F159" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G159" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5615,22 +5606,22 @@
         <v>114</v>
       </c>
       <c r="B160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D160" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E160" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F160" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G160" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5638,22 +5629,22 @@
         <v>115</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C161" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D161" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E161" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F161" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G161" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5661,22 +5652,22 @@
         <v>116</v>
       </c>
       <c r="B162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E162" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F162" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G162" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5684,22 +5675,22 @@
         <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D163" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E163" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F163" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G163" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5707,22 +5698,22 @@
         <v>118</v>
       </c>
       <c r="B164" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D164" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E164" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F164" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G164" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5730,22 +5721,22 @@
         <v>118</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C165" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D165" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E165" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F165" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G165" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5753,22 +5744,22 @@
         <v>118</v>
       </c>
       <c r="B166" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E166" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F166" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G166" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5776,22 +5767,22 @@
         <v>118</v>
       </c>
       <c r="B167" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C167" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D167" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E167" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F167" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G167" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5799,22 +5790,22 @@
         <v>118</v>
       </c>
       <c r="B168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D168" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E168" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F168" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G168" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5822,22 +5813,22 @@
         <v>118</v>
       </c>
       <c r="B169" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E169" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F169" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G169" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5845,22 +5836,22 @@
         <v>119</v>
       </c>
       <c r="B170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C170" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D170" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E170" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F170" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G170" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5868,22 +5859,22 @@
         <v>120</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C171" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D171" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E171" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F171" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G171" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5891,22 +5882,22 @@
         <v>120</v>
       </c>
       <c r="B172" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C172" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D172" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E172" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F172" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G172" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5914,22 +5905,22 @@
         <v>120</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D173" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E173" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F173" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G173" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5937,22 +5928,22 @@
         <v>121</v>
       </c>
       <c r="B174" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C174" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D174" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E174" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F174" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G174" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5960,22 +5951,22 @@
         <v>122</v>
       </c>
       <c r="B175" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C175" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D175" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E175" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F175" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G175" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5983,22 +5974,22 @@
         <v>122</v>
       </c>
       <c r="B176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D176" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E176" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F176" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G176" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6006,71 +5997,26 @@
         <v>122</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D177" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E177" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F177" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G177" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
-        <v>123</v>
-      </c>
-      <c r="B178" t="s">
-        <v>247</v>
-      </c>
-      <c r="C178" t="s">
-        <v>250</v>
-      </c>
-      <c r="D178" t="s">
-        <v>253</v>
-      </c>
-      <c r="E178" t="s">
-        <v>255</v>
-      </c>
-      <c r="F178" t="s">
-        <v>400</v>
-      </c>
-      <c r="G178" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" t="s">
-        <v>123</v>
-      </c>
-      <c r="B179" t="s">
-        <v>247</v>
-      </c>
-      <c r="C179" t="s">
-        <v>250</v>
-      </c>
-      <c r="D179" t="s">
-        <v>253</v>
-      </c>
-      <c r="E179" t="s">
-        <v>255</v>
-      </c>
-      <c r="F179" t="s">
-        <v>400</v>
-      </c>
-      <c r="G179" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>